--- a/data/aoi_categorized/AOI_BinarySearchStrings.xlsx
+++ b/data/aoi_categorized/AOI_BinarySearchStrings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>startHeight</t>
   </si>
@@ -32,6 +32,27 @@
   </si>
   <si>
     <t>main</t>
+  </si>
+  <si>
+    <t>definition</t>
+  </si>
+  <si>
+    <t>pre calculation</t>
+  </si>
+  <si>
+    <t>iteration condition</t>
+  </si>
+  <si>
+    <t>iteration step</t>
+  </si>
+  <si>
+    <t>if condition</t>
+  </si>
+  <si>
+    <t>return result</t>
+  </si>
+  <si>
+    <t>if step</t>
   </si>
 </sst>
 </file>
@@ -389,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -414,10 +435,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B2">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -431,10 +452,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B3">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -448,10 +469,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B4">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -465,10 +486,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="B5">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -478,6 +499,244 @@
       </c>
       <c r="E5" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>94</v>
+      </c>
+      <c r="B6">
+        <v>108</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>495</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>109</v>
+      </c>
+      <c r="B7">
+        <v>123</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>495</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>139</v>
+      </c>
+      <c r="B8">
+        <v>153</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>495</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>154</v>
+      </c>
+      <c r="B9">
+        <v>168</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>495</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>169</v>
+      </c>
+      <c r="B10">
+        <v>183</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>495</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>184</v>
+      </c>
+      <c r="B11">
+        <v>198</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>495</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>214</v>
+      </c>
+      <c r="B12">
+        <v>228</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>495</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>244</v>
+      </c>
+      <c r="B13">
+        <v>258</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>495</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>259</v>
+      </c>
+      <c r="B14">
+        <v>273</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>495</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>304</v>
+      </c>
+      <c r="B15">
+        <v>318</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>495</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>319</v>
+      </c>
+      <c r="B16">
+        <v>333</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>495</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>349</v>
+      </c>
+      <c r="B17">
+        <v>363</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>495</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>364</v>
+      </c>
+      <c r="B18">
+        <v>378</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>495</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>409</v>
+      </c>
+      <c r="B19">
+        <v>423</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>495</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
